--- a/StructureDefinition-profile-Device.xlsx
+++ b/StructureDefinition-profile-Device.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6653332-06:00</t>
+    <t>2026-02-09T22:05:43.062912-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -413,33 +413,194 @@
     <t>Device.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Device.extension:availabilityStatus</t>
+  </si>
+  <si>
+    <t>availabilityStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.availabilityStatus|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.availabilityStatus from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The availability of the device.</t>
+  </si>
+  <si>
+    <t>Element `Device.availabilityStatus` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Device.extension:biologicalSourceEvent</t>
+  </si>
+  <si>
+    <t>biologicalSourceEvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.biologicalSourceEvent|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.biologicalSourceEvent from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An identifier that supports traceability to the event during which material in this product from one or more biological entities was obtained or pooled.</t>
+  </si>
+  <si>
+    <t>Element `Device.biologicalSourceEvent` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t>Device.extension:category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.category|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.category from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Devices may be associated with one or more categories.</t>
+  </si>
+  <si>
+    <t>Element `Device.category` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t>Device.extension:mode</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.mode|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.mode from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The designated condition for performing a task with the device.</t>
+  </si>
+  <si>
+    <t>Element `Device.mode` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t>Device.extension:cycle</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.cycle|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.cycle from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The series of occurrences that repeats during the operation of the device.</t>
+  </si>
+  <si>
+    <t>Element `Device.cycle` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t>Device.extension:duration</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.duration|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.duration from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A measurement of time during the device's operation (e.g., days, hours, mins, etc.).</t>
+  </si>
+  <si>
+    <t>Element `Device.duration` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t>Device.extension:gateway</t>
+  </si>
+  <si>
+    <t>gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.gateway|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.gateway from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The linked device acting as a communication controller, data collector, translator, or concentrator for the current device (e.g., mobile phone application that relays a blood pressure device's data).</t>
+  </si>
+  <si>
+    <t>Element `Device.gateway` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t>Device.extension:endpoint</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.endpoint from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Endpoint in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Device.endpoint` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Device.endpoint` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
+    <t>Device.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Device.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -447,6 +608,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -513,23 +677,16 @@
     <t>Device.definition.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Device.definition.extension:definition</t>
+  </si>
+  <si>
+    <t>definition</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.definition|0.0.1-snapshot-3}
@@ -537,6 +694,9 @@
   </si>
   <si>
     <t>Cross-version extension for Device.definition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Device.definition` is mapped to FHIR R4 element `Device.definition`.</t>
   </si>
   <si>
     <t>Device.definition.reference</t>
@@ -642,6 +802,9 @@
   </si>
   <si>
     <t>Device.udiCarrier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -814,6 +977,12 @@
     <t>Device.udiCarrier.entryType.extension</t>
   </si>
   <si>
+    <t>Device.udiCarrier.entryType.extension:entryType</t>
+  </si>
+  <si>
+    <t>entryType</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.udiCarrier.entryType|0.0.1-snapshot-3}
 </t>
   </si>
@@ -821,8 +990,7 @@
     <t>Cross-version extension for Device.udiCarrier.entryType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `Device.udiCarrier.entryType` is mapped to FHIR R4 element `Device.udiCarrier.entryType`.</t>
   </si>
   <si>
     <t>Device.udiCarrier.entryType.value</t>
@@ -984,6 +1152,12 @@
     <t>Device.deviceName.extension</t>
   </si>
   <si>
+    <t>Device.deviceName.extension:displayName</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.displayName|0.0.1-snapshot-3}
 </t>
   </si>
@@ -994,6 +1168,9 @@
     <t>The name used to display by default when the device is referenced. Based on intent of use by the resource creator, this may reflect one of the names in Device.name, or may be another simple name.</t>
   </si>
   <si>
+    <t>Element `Device.displayName` is mapped to FHIR R4 element `Device.deviceName`.</t>
+  </si>
+  <si>
     <t>Device.deviceName.modifierExtension</t>
   </si>
   <si>
@@ -1083,6 +1260,25 @@
     <t>Device.specialization.extension</t>
   </si>
   <si>
+    <t>Device.specialization.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.conformsTo.version|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.conformsTo.version from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifies the specific form or variant of the standard, specification, or formal guidance. This may be a 'version number', release, document edition, publication year, or other label.</t>
+  </si>
+  <si>
+    <t>Element `Device.conformsTo.version` is will have a context of Device.specialization based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
     <t>Device.specialization.modifierExtension</t>
   </si>
   <si>
@@ -1119,6 +1315,25 @@
     <t>Device.version.extension</t>
   </si>
   <si>
+    <t>Device.version.extension:installDate</t>
+  </si>
+  <si>
+    <t>installDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.version.installDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.version.installDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date the version was installed on the device.</t>
+  </si>
+  <si>
+    <t>Element `Device.version.installDate` is will have a context of Device.version based on following the parent source element upwards and mapping to `Device`.</t>
+  </si>
+  <si>
     <t>Device.version.modifierExtension</t>
   </si>
   <si>
@@ -1162,6 +1377,12 @@
   </si>
   <si>
     <t>Device.property.extension</t>
+  </si>
+  <si>
+    <t>Device.property.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.property.value|0.0.1-snapshot-3}
@@ -1174,7 +1395,8 @@
     <t>The value of the property specified by the associated property.type code.</t>
   </si>
   <si>
-    <t>The text element in CodeableConcept.text is used for properties which would usually be coded (such as the size of an implant, or a security classification) but for which there is not currently an appropriate concept in the vocabulary (e.g. a custom implant size, or a security classification which depends on configuration). Otherwise the string choice type is used for descriptive properties, or instructions.</t>
+    <t>Element `Device.property.value[x]` is mapped to FHIR R4 element `Device.property.valueQuantity`.
+Element `Device.property.value[x]` is mapped to FHIR R4 element `Device.property.valueCode`.</t>
   </si>
   <si>
     <t>Device.property.modifierExtension</t>
@@ -1650,7 +1872,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM80"/>
+  <dimension ref="A1:AM90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1659,9 +1881,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.4140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.75390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.58984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.9375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1669,7 +1891,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.59765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.6015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2600,7 +2822,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2619,17 +2841,15 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2666,16 +2886,14 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>134</v>
@@ -2693,7 +2911,7 @@
         <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2707,43 +2925,43 @@
         <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2791,7 +3009,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2800,13 +3018,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -2817,12 +3035,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2831,7 +3051,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2843,16 +3063,16 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2902,7 +3122,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2911,19 +3131,19 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -2931,9 +3151,11 @@
         <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2942,7 +3164,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2954,15 +3176,17 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -3011,19 +3235,19 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -3037,12 +3261,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3063,15 +3289,17 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -3120,22 +3348,22 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -3146,22 +3374,24 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3172,15 +3402,17 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3217,19 +3449,19 @@
         <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3238,7 +3470,7 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>135</v>
@@ -3255,12 +3487,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3281,15 +3515,17 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3338,7 +3574,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3347,7 +3583,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>135</v>
@@ -3364,12 +3600,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3378,7 +3616,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3387,19 +3625,19 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3449,22 +3687,22 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3475,12 +3713,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3489,7 +3729,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3498,19 +3738,19 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3536,13 +3776,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3560,22 +3800,22 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3586,44 +3826,46 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3671,22 +3913,22 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3697,10 +3939,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3711,7 +3953,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3720,19 +3962,19 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3788,7 +4030,7 @@
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -3797,21 +4039,21 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3822,7 +4064,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3831,20 +4073,18 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3893,13 +4133,13 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
@@ -3908,10 +4148,10 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3919,10 +4159,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3945,13 +4185,13 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4002,7 +4242,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4017,7 +4257,7 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4028,14 +4268,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4054,17 +4294,15 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4101,19 +4339,19 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4128,7 +4366,7 @@
         <v>135</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4139,46 +4377,46 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4226,7 +4464,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4241,7 +4479,7 @@
         <v>135</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4252,14 +4490,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4278,15 +4516,17 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4335,7 +4575,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4344,31 +4584,31 @@
         <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4384,18 +4624,20 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4420,13 +4662,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4444,7 +4686,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4459,21 +4701,21 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4493,21 +4735,21 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4555,7 +4797,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4570,7 +4812,7 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4581,14 +4823,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4607,16 +4849,16 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4666,7 +4908,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4681,32 +4923,32 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4718,16 +4960,16 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4777,13 +5019,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4792,21 +5034,21 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4829,18 +5071,16 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4864,13 +5104,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4888,7 +5128,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4900,10 +5140,10 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4914,21 +5154,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4940,15 +5180,17 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4997,22 +5239,22 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5023,18 +5265,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5043,22 +5285,26 @@
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5094,17 +5340,19 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5119,7 +5367,7 @@
         <v>135</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5130,14 +5378,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5153,16 +5401,16 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5213,40 +5461,40 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5265,13 +5513,13 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5322,7 +5570,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5334,24 +5582,24 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5368,24 +5616,24 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5409,13 +5657,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5433,7 +5681,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5448,10 +5696,10 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5459,21 +5707,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5482,18 +5730,20 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5518,13 +5768,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5542,13 +5792,13 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
@@ -5557,25 +5807,25 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5591,19 +5841,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5653,7 +5903,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5668,21 +5918,21 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5705,16 +5955,18 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5738,13 +5990,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5762,7 +6014,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5777,21 +6029,21 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5814,13 +6066,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5871,7 +6123,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>281</v>
+        <v>208</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5883,24 +6135,24 @@
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5911,7 +6163,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5923,13 +6175,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>289</v>
+        <v>131</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5968,50 +6220,50 @@
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6032,15 +6284,17 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6089,36 +6343,36 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6141,17 +6395,15 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6200,7 +6452,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6212,13 +6464,13 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6226,10 +6478,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6240,27 +6492,29 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6285,13 +6539,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6309,13 +6563,13 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
@@ -6324,10 +6578,10 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6335,10 +6589,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6349,7 +6603,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6361,13 +6615,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>154</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>155</v>
+        <v>319</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>156</v>
+        <v>320</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6394,13 +6648,13 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6418,25 +6672,25 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6444,22 +6698,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6470,15 +6724,17 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>160</v>
+        <v>325</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6515,46 +6771,48 @@
         <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6577,13 +6835,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6634,72 +6892,68 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>130</v>
+        <v>335</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>204</v>
+        <v>336</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6747,44 +7001,44 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>206</v>
+        <v>334</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>127</v>
+        <v>338</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>84</v>
@@ -6799,13 +7053,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6856,10 +7110,10 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>84</v>
@@ -6871,21 +7125,21 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6893,7 +7147,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>84</v>
@@ -6908,13 +7162,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6941,13 +7195,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -6965,10 +7219,10 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>84</v>
@@ -6980,21 +7234,21 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7017,15 +7271,17 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7074,7 +7330,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7089,10 +7345,10 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7100,10 +7356,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7114,7 +7370,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7126,17 +7382,15 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7185,13 +7439,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7200,10 +7454,10 @@
         <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7211,10 +7465,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7237,13 +7491,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>327</v>
+        <v>206</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7270,13 +7524,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7294,7 +7548,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7306,10 +7560,10 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7320,10 +7574,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7346,13 +7600,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>333</v>
+        <v>130</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
+        <v>131</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7391,19 +7645,17 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>332</v>
+        <v>212</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7415,7 +7667,7 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
@@ -7429,12 +7681,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7455,15 +7709,17 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7512,22 +7768,22 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7538,14 +7794,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7558,24 +7814,26 @@
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7623,7 +7881,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7638,7 +7896,7 @@
         <v>135</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7649,46 +7907,42 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>204</v>
+        <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
       </c>
@@ -7736,22 +7990,22 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>206</v>
+        <v>365</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7762,14 +8016,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7788,13 +8042,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7821,13 +8075,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -7845,7 +8099,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>84</v>
@@ -7860,10 +8114,10 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -7871,10 +8125,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7897,13 +8151,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7954,7 +8208,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -7969,10 +8223,10 @@
         <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -7980,10 +8234,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7994,7 +8248,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8006,15 +8260,17 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8063,13 +8319,13 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
@@ -8078,10 +8334,10 @@
         <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8089,10 +8345,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8115,13 +8371,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>154</v>
+        <v>318</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>155</v>
+        <v>383</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>156</v>
+        <v>384</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8148,13 +8404,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8172,7 +8428,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>157</v>
+        <v>382</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8184,10 +8440,10 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8198,14 +8454,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8224,17 +8480,15 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>131</v>
+        <v>389</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8283,7 +8537,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>165</v>
+        <v>388</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8295,10 +8549,10 @@
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8309,46 +8563,42 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8396,22 +8646,22 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8422,21 +8672,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8448,13 +8698,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>351</v>
+        <v>130</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>352</v>
+        <v>131</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8493,31 +8743,29 @@
         <v>76</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -8531,12 +8779,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8557,15 +8807,17 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>142</v>
+        <v>395</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -8614,25 +8866,25 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>353</v>
+        <v>212</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8640,42 +8892,46 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>357</v>
+        <v>255</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
       </c>
@@ -8723,22 +8979,22 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -8749,21 +9005,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8775,13 +9031,13 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8832,13 +9088,13 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
@@ -8858,10 +9114,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8884,13 +9140,13 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>155</v>
+        <v>404</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>156</v>
+        <v>405</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8941,7 +9197,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>157</v>
+        <v>403</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -8953,13 +9209,13 @@
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -8967,10 +9223,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8978,7 +9234,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -8993,13 +9249,13 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>160</v>
+        <v>407</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>161</v>
+        <v>408</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9038,17 +9294,19 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>165</v>
+        <v>406</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9060,7 +9318,7 @@
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -9074,10 +9332,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9085,7 +9343,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>84</v>
@@ -9100,17 +9358,15 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>364</v>
+        <v>205</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>365</v>
+        <v>206</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9159,22 +9415,22 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9185,14 +9441,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9205,26 +9461,22 @@
         <v>76</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9260,19 +9512,17 @@
         <v>76</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9287,7 +9537,7 @@
         <v>135</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9298,18 +9548,20 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>84</v>
@@ -9324,15 +9576,17 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>265</v>
+        <v>413</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -9381,19 +9635,19 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>369</v>
+        <v>212</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>76</v>
@@ -9407,14 +9661,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9427,22 +9681,26 @@
         <v>76</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>373</v>
+        <v>129</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>374</v>
+        <v>255</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9490,7 +9748,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -9502,10 +9760,10 @@
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -9516,21 +9774,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9542,13 +9800,13 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9599,13 +9857,13 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>76</v>
@@ -9625,10 +9883,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9651,18 +9909,16 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>380</v>
+        <v>193</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>76</v>
       </c>
@@ -9710,7 +9966,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -9725,10 +9981,10 @@
         <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>385</v>
+        <v>263</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -9736,10 +9992,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9747,7 +10003,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>84</v>
@@ -9762,13 +10018,13 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9819,10 +10075,10 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>84</v>
@@ -9834,10 +10090,10 @@
         <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -9845,10 +10101,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9871,17 +10127,15 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>393</v>
+        <v>244</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -9930,7 +10184,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -9945,10 +10199,10 @@
         <v>96</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -9956,10 +10210,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9982,18 +10236,16 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>399</v>
+        <v>205</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>400</v>
+        <v>206</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>401</v>
+        <v>207</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10041,7 +10293,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>398</v>
+        <v>208</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10053,13 +10305,13 @@
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>403</v>
+        <v>209</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>404</v>
+        <v>76</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10067,10 +10319,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10078,10 +10330,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10093,17 +10345,15 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>406</v>
+        <v>130</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -10140,37 +10390,35 @@
         <v>76</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC77" s="2"/>
       <c r="AD77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>405</v>
+        <v>212</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>404</v>
+        <v>76</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10178,21 +10426,23 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10204,15 +10454,17 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -10261,7 +10513,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>410</v>
+        <v>212</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -10270,13 +10522,13 @@
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
@@ -10287,14 +10539,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10307,22 +10559,26 @@
         <v>76</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>416</v>
+        <v>255</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
       </c>
@@ -10370,7 +10626,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>415</v>
+        <v>257</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -10382,10 +10638,10 @@
         <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
@@ -10396,10 +10652,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10407,7 +10663,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>84</v>
@@ -10422,13 +10678,13 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>419</v>
+        <v>318</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10479,10 +10735,10 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>84</v>
@@ -10500,6 +10756,1104 @@
         <v>76</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Device.xlsx
+++ b/StructureDefinition-profile-Device.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="487">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.062912-06:00</t>
+    <t>2026-02-17T14:42:26.7821593-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,7 +453,7 @@
     <t>The availability of the device.</t>
   </si>
   <si>
-    <t>Element `Device.availabilityStatus` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `Device.availabilityStatus` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -476,7 +476,7 @@
     <t>An identifier that supports traceability to the event during which material in this product from one or more biological entities was obtained or pooled.</t>
   </si>
   <si>
-    <t>Element `Device.biologicalSourceEvent` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `Device.biologicalSourceEvent` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.extension:category</t>
@@ -495,7 +495,7 @@
     <t>Devices may be associated with one or more categories.</t>
   </si>
   <si>
-    <t>Element `Device.category` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `Device.category` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.extension:mode</t>
@@ -514,7 +514,7 @@
     <t>The designated condition for performing a task with the device.</t>
   </si>
   <si>
-    <t>Element `Device.mode` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `Device.mode` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.extension:cycle</t>
@@ -533,7 +533,7 @@
     <t>The series of occurrences that repeats during the operation of the device.</t>
   </si>
   <si>
-    <t>Element `Device.cycle` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `Device.cycle` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.extension:duration</t>
@@ -552,7 +552,7 @@
     <t>A measurement of time during the device's operation (e.g., days, hours, mins, etc.).</t>
   </si>
   <si>
-    <t>Element `Device.duration` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `Device.duration` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.extension:gateway</t>
@@ -571,7 +571,7 @@
     <t>The linked device acting as a communication controller, data collector, translator, or concentrator for the current device (e.g., mobile phone application that relays a blood pressure device's data).</t>
   </si>
   <si>
-    <t>Element `Device.gateway` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `Device.gateway` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.extension:endpoint</t>
@@ -591,7 +591,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Device.endpoint` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Device.endpoint` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+Element `Device.endpoint` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.modifierExtension</t>
@@ -696,7 +696,7 @@
     <t>Cross-version extension for Device.definition from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Device.definition` is mapped to FHIR R4 element `Device.definition`.</t>
+    <t>Element `Device.definition` has is mapped to FHIR R4 element `Device.definition`, but has no comparisons.</t>
   </si>
   <si>
     <t>Device.definition.reference</t>
@@ -804,10 +804,20 @@
     <t>Device.udiCarrier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Device.udiCarrier.extension:udiCarrier</t>
+  </si>
+  <si>
+    <t>udiCarrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.udiCarrier|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.udiCarrier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Device.udiCarrier` has is mapped to FHIR R4 element `Device.udiCarrier`, but has no comparisons.</t>
   </si>
   <si>
     <t>Device.udiCarrier.modifierExtension</t>
@@ -965,43 +975,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Device.udiCarrier.entryType.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Device.udiCarrier.entryType.extension</t>
-  </si>
-  <si>
-    <t>Device.udiCarrier.entryType.extension:entryType</t>
-  </si>
-  <si>
-    <t>entryType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.udiCarrier.entryType|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Device.udiCarrier.entryType from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Device.udiCarrier.entryType` is mapped to FHIR R4 element `Device.udiCarrier.entryType`.</t>
-  </si>
-  <si>
-    <t>Device.udiCarrier.entryType.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
     <t>Device.status</t>
   </si>
   <si>
@@ -1168,7 +1141,23 @@
     <t>The name used to display by default when the device is referenced. Based on intent of use by the resource creator, this may reflect one of the names in Device.name, or may be another simple name.</t>
   </si>
   <si>
-    <t>Element `Device.displayName` is mapped to FHIR R4 element `Device.deviceName`.</t>
+    <t>Element `Device.displayName` has is mapped to FHIR R4 element `Device.deviceName`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Device.deviceName.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.name|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.name from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Device.name` has is mapped to FHIR R4 element `Device.deviceName`, but has no comparisons.</t>
   </si>
   <si>
     <t>Device.deviceName.modifierExtension</t>
@@ -1260,143 +1249,139 @@
     <t>Device.specialization.extension</t>
   </si>
   <si>
-    <t>Device.specialization.extension:version</t>
+    <t>Device.specialization.extension:conformsTo</t>
+  </si>
+  <si>
+    <t>conformsTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.conformsTo|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.conformsTo from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifies the standards, specifications, or formal guidances for the capabilities supported by the device. The device may be certified as conformant to these specifications e.g., communication, performance, process, measurement, or specialization standards.</t>
+  </si>
+  <si>
+    <t>Element `Device.conformsTo` has is mapped to FHIR R4 element `Device.specialization`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Device.specialization.modifierExtension</t>
+  </si>
+  <si>
+    <t>Device.specialization.systemType</t>
+  </si>
+  <si>
+    <t>The standard that is used to operate and communicate</t>
+  </si>
+  <si>
+    <t>The standard that is used to operate and communicate.</t>
+  </si>
+  <si>
+    <t>Device.specialization.version</t>
+  </si>
+  <si>
+    <t>The version of the standard that is used to operate and communicate</t>
+  </si>
+  <si>
+    <t>The version of the standard that is used to operate and communicate.</t>
+  </si>
+  <si>
+    <t>Device.version</t>
+  </si>
+  <si>
+    <t>The actual design of the device or software version running on the device</t>
+  </si>
+  <si>
+    <t>The actual design of the device or software version running on the device.</t>
+  </si>
+  <si>
+    <t>Device.version.id</t>
+  </si>
+  <si>
+    <t>Device.version.extension</t>
+  </si>
+  <si>
+    <t>Device.version.extension:version</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.conformsTo.version|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.version|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Device.conformsTo.version from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Identifies the specific form or variant of the standard, specification, or formal guidance. This may be a 'version number', release, document edition, publication year, or other label.</t>
-  </si>
-  <si>
-    <t>Element `Device.conformsTo.version` is will have a context of Device.specialization based on following the parent source element upwards and mapping to `Device`.</t>
-  </si>
-  <si>
-    <t>Device.specialization.modifierExtension</t>
-  </si>
-  <si>
-    <t>Device.specialization.systemType</t>
-  </si>
-  <si>
-    <t>The standard that is used to operate and communicate</t>
-  </si>
-  <si>
-    <t>The standard that is used to operate and communicate.</t>
-  </si>
-  <si>
-    <t>Device.specialization.version</t>
-  </si>
-  <si>
-    <t>The version of the standard that is used to operate and communicate</t>
-  </si>
-  <si>
-    <t>The version of the standard that is used to operate and communicate.</t>
-  </si>
-  <si>
-    <t>Device.version</t>
-  </si>
-  <si>
-    <t>The actual design of the device or software version running on the device</t>
-  </si>
-  <si>
-    <t>The actual design of the device or software version running on the device.</t>
-  </si>
-  <si>
-    <t>Device.version.id</t>
-  </si>
-  <si>
-    <t>Device.version.extension</t>
-  </si>
-  <si>
-    <t>Device.version.extension:installDate</t>
-  </si>
-  <si>
-    <t>installDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.version.installDate|0.0.1-snapshot-3}
+    <t>Cross-version extension for Device.version from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Device.version` has is mapped to FHIR R4 element `Device.version`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Device.version.modifierExtension</t>
+  </si>
+  <si>
+    <t>Device.version.type</t>
+  </si>
+  <si>
+    <t>The type of the device version</t>
+  </si>
+  <si>
+    <t>The type of the device version.</t>
+  </si>
+  <si>
+    <t>Device.version.component</t>
+  </si>
+  <si>
+    <t>A single component of the device version</t>
+  </si>
+  <si>
+    <t>A single component of the device version.</t>
+  </si>
+  <si>
+    <t>Device.version.value</t>
+  </si>
+  <si>
+    <t>The version text</t>
+  </si>
+  <si>
+    <t>The version text.</t>
+  </si>
+  <si>
+    <t>Device.property</t>
+  </si>
+  <si>
+    <t>The actual configuration settings of a device as it actually operates, e.g., regulation status, time properties</t>
+  </si>
+  <si>
+    <t>The actual configuration settings of a device as it actually operates, e.g., regulation status, time properties.</t>
+  </si>
+  <si>
+    <t>Device.property.id</t>
+  </si>
+  <si>
+    <t>Device.property.extension</t>
+  </si>
+  <si>
+    <t>Device.property.extension:property</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.property|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Device.version.installDate from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The date the version was installed on the device.</t>
-  </si>
-  <si>
-    <t>Element `Device.version.installDate` is will have a context of Device.version based on following the parent source element upwards and mapping to `Device`.</t>
-  </si>
-  <si>
-    <t>Device.version.modifierExtension</t>
-  </si>
-  <si>
-    <t>Device.version.type</t>
-  </si>
-  <si>
-    <t>The type of the device version</t>
-  </si>
-  <si>
-    <t>The type of the device version.</t>
-  </si>
-  <si>
-    <t>Device.version.component</t>
-  </si>
-  <si>
-    <t>A single component of the device version</t>
-  </si>
-  <si>
-    <t>A single component of the device version.</t>
-  </si>
-  <si>
-    <t>Device.version.value</t>
-  </si>
-  <si>
-    <t>The version text</t>
-  </si>
-  <si>
-    <t>The version text.</t>
-  </si>
-  <si>
-    <t>Device.property</t>
-  </si>
-  <si>
-    <t>The actual configuration settings of a device as it actually operates, e.g., regulation status, time properties</t>
-  </si>
-  <si>
-    <t>The actual configuration settings of a device as it actually operates, e.g., regulation status, time properties.</t>
-  </si>
-  <si>
-    <t>Device.property.id</t>
-  </si>
-  <si>
-    <t>Device.property.extension</t>
-  </si>
-  <si>
-    <t>Device.property.extension:value</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.property.value|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Device.property.value[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The value of the property specified by the associated property.type code.</t>
-  </si>
-  <si>
-    <t>Element `Device.property.value[x]` is mapped to FHIR R4 element `Device.property.valueQuantity`.
-Element `Device.property.value[x]` is mapped to FHIR R4 element `Device.property.valueCode`.</t>
+    <t>Cross-version extension for Device.property from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Static or essentially fixed characteristics or features of the device (e.g., time or timing attributes, resolution, accuracy, intended use or instructions for use, and physical attributes) that are not otherwise captured in more specific attributes.</t>
+  </si>
+  <si>
+    <t>Element `Device.property` has is mapped to FHIR R4 element `Device.property`, but has no comparisons.</t>
   </si>
   <si>
     <t>Device.property.modifierExtension</t>
@@ -1872,7 +1857,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM90"/>
+  <dimension ref="A1:AM88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1881,7 +1866,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.4140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.0625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.75390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.58984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.9375" customWidth="true" bestFit="true" hidden="true"/>
@@ -5161,7 +5146,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5183,14 +5168,12 @@
         <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -5227,16 +5210,14 @@
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>212</v>
@@ -5254,7 +5235,7 @@
         <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5265,14 +5246,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D31" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5285,26 +5268,24 @@
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5352,7 +5333,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5361,13 +5342,13 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5378,42 +5359,46 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5461,40 +5446,40 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>262</v>
+        <v>127</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5510,16 +5495,16 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5570,7 +5555,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5585,25 +5570,25 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5625,15 +5610,13 @@
         <v>98</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>274</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5681,7 +5664,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5696,25 +5679,25 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5730,21 +5713,21 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>98</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5792,7 +5775,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5807,25 +5790,25 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5844,16 +5827,16 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5903,7 +5886,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5918,25 +5901,25 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5952,21 +5935,21 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5990,13 +5973,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -6014,7 +5997,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6029,21 +6012,21 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6066,16 +6049,18 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6099,13 +6084,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -6123,7 +6108,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6135,10 +6120,10 @@
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -6163,27 +6148,29 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6208,47 +6195,49 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6256,14 +6245,12 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6272,7 +6259,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6284,17 +6271,15 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6319,13 +6304,13 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6343,7 +6328,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6352,16 +6337,16 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6369,14 +6354,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6398,12 +6383,14 @@
         <v>205</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6452,7 +6439,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6464,24 +6451,24 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6498,23 +6485,21 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6539,13 +6524,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6563,7 +6548,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6578,21 +6563,21 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6603,7 +6588,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6615,13 +6600,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6648,13 +6633,13 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6672,13 +6657,13 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
@@ -6687,25 +6672,25 @@
         <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6724,17 +6709,15 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6783,7 +6766,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6798,21 +6781,21 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6838,10 +6821,10 @@
         <v>205</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6892,7 +6875,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6907,21 +6890,21 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>127</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6944,15 +6927,17 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -7001,7 +6986,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7016,21 +7001,21 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7041,7 +7026,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -7053,13 +7038,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7110,13 +7095,13 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
@@ -7125,21 +7110,21 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>344</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7165,10 +7150,10 @@
         <v>205</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
+        <v>206</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>347</v>
+        <v>207</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7219,7 +7204,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7231,16 +7216,16 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>328</v>
+        <v>209</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -7259,7 +7244,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7271,17 +7256,15 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>349</v>
+        <v>130</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7318,37 +7301,35 @@
         <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>348</v>
+        <v>212</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7356,12 +7337,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7370,7 +7353,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7382,15 +7365,17 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>244</v>
+        <v>351</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7439,7 +7424,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>353</v>
+        <v>212</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7448,10 +7433,10 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
@@ -7465,12 +7450,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7479,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7491,15 +7478,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>205</v>
+        <v>357</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>206</v>
+        <v>358</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7548,22 +7537,22 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7574,14 +7563,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7594,22 +7583,26 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7645,17 +7638,19 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7670,7 +7665,7 @@
         <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7681,20 +7676,18 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>84</v>
@@ -7709,17 +7702,15 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>360</v>
+        <v>205</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7768,19 +7759,19 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>212</v>
+        <v>361</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
@@ -7794,46 +7785,42 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7857,13 +7844,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -7881,25 +7868,25 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>257</v>
+        <v>365</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>127</v>
+        <v>370</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7907,18 +7894,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>84</v>
@@ -7936,10 +7923,10 @@
         <v>205</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7990,10 +7977,10 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>84</v>
@@ -8005,10 +7992,10 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8016,10 +8003,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8027,7 +8014,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>84</v>
@@ -8042,15 +8029,17 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8075,13 +8064,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -8099,10 +8088,10 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>84</v>
@@ -8114,10 +8103,10 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8125,10 +8114,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8151,13 +8140,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8184,13 +8173,13 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>383</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8208,7 +8197,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8223,10 +8212,10 @@
         <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8234,10 +8223,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8248,7 +8237,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8260,17 +8249,15 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8319,13 +8306,13 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
@@ -8334,10 +8321,10 @@
         <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8345,10 +8332,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8371,13 +8358,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>318</v>
+        <v>205</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>383</v>
+        <v>206</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>384</v>
+        <v>207</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8404,13 +8391,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8428,7 +8415,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>382</v>
+        <v>208</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8440,10 +8427,10 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8480,13 +8467,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>389</v>
+        <v>130</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>390</v>
+        <v>131</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8525,19 +8512,17 @@
         <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>388</v>
+        <v>212</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8549,7 +8534,7 @@
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8563,12 +8548,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8577,7 +8564,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8589,15 +8576,17 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>205</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>206</v>
+        <v>392</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8646,22 +8635,22 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8672,14 +8661,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8692,22 +8681,26 @@
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8743,17 +8736,19 @@
         <v>76</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC62" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8768,7 +8763,7 @@
         <v>135</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8779,20 +8774,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>84</v>
@@ -8807,17 +8800,15 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N63" t="s" s="2">
         <v>398</v>
       </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -8866,19 +8857,19 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>212</v>
+        <v>396</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
@@ -8899,39 +8890,35 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>255</v>
+        <v>400</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
       </c>
@@ -8979,25 +8966,25 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>257</v>
+        <v>399</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9005,21 +8992,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -9031,13 +9018,13 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9088,13 +9075,13 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
@@ -9114,10 +9101,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9143,10 +9130,10 @@
         <v>205</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>404</v>
+        <v>206</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>405</v>
+        <v>207</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9197,7 +9184,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>403</v>
+        <v>208</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9209,13 +9196,13 @@
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -9249,13 +9236,13 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>407</v>
+        <v>130</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>408</v>
+        <v>131</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9294,19 +9281,17 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>406</v>
+        <v>212</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9318,7 +9303,7 @@
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -9332,12 +9317,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9346,7 +9333,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9358,15 +9345,17 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>205</v>
+        <v>409</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>206</v>
+        <v>410</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9415,22 +9404,22 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9441,14 +9430,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9461,22 +9450,26 @@
         <v>76</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9512,17 +9505,19 @@
         <v>76</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC69" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9537,7 +9532,7 @@
         <v>135</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9548,16 +9543,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9576,7 +9569,7 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>413</v>
+        <v>309</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>414</v>
@@ -9584,9 +9577,7 @@
       <c r="M70" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>416</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -9635,19 +9626,19 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>212</v>
+        <v>413</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>76</v>
@@ -9661,46 +9652,42 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>255</v>
+        <v>417</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9748,25 +9735,25 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>257</v>
+        <v>416</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9774,18 +9761,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>84</v>
@@ -9800,13 +9787,13 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>318</v>
+        <v>205</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9857,10 +9844,10 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>84</v>
@@ -9883,10 +9870,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9897,7 +9884,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9909,13 +9896,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9966,13 +9953,13 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
@@ -9984,7 +9971,7 @@
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -9992,10 +9979,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10003,7 +9990,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>84</v>
@@ -10021,10 +10008,10 @@
         <v>205</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>425</v>
+        <v>206</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>426</v>
+        <v>207</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10075,10 +10062,10 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>424</v>
+        <v>208</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>84</v>
@@ -10087,10 +10074,10 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
@@ -10101,10 +10088,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10127,13 +10114,13 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>428</v>
+        <v>130</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>429</v>
+        <v>131</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10172,19 +10159,17 @@
         <v>76</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>427</v>
+        <v>212</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10196,7 +10181,7 @@
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>76</v>
@@ -10210,12 +10195,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10224,7 +10211,7 @@
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -10236,15 +10223,17 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>205</v>
+        <v>429</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>206</v>
+        <v>430</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10293,22 +10282,22 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>76</v>
@@ -10319,18 +10308,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -10339,22 +10328,26 @@
         <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10390,17 +10383,19 @@
         <v>76</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC77" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10415,7 +10410,7 @@
         <v>135</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -10426,14 +10421,12 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>76</v>
       </c>
@@ -10454,7 +10447,7 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>434</v>
+        <v>309</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>435</v>
@@ -10462,9 +10455,7 @@
       <c r="M78" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N78" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -10513,19 +10504,19 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>212</v>
+        <v>434</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -10539,14 +10530,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10559,26 +10550,22 @@
         <v>76</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>129</v>
+        <v>438</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>255</v>
+        <v>439</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>76</v>
       </c>
@@ -10626,7 +10613,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>257</v>
+        <v>437</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -10638,10 +10625,10 @@
         <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
@@ -10652,10 +10639,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10663,10 +10650,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -10678,13 +10665,13 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10735,13 +10722,13 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>76</v>
@@ -10761,10 +10748,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10775,7 +10762,7 @@
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>76</v>
@@ -10787,16 +10774,18 @@
         <v>76</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>76</v>
       </c>
@@ -10844,13 +10833,13 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>76</v>
@@ -10859,10 +10848,10 @@
         <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>76</v>
@@ -10870,10 +10859,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10884,7 +10873,7 @@
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
@@ -10896,13 +10885,13 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>318</v>
+        <v>452</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10953,13 +10942,13 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>76</v>
@@ -10968,10 +10957,10 @@
         <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>76</v>
+        <v>455</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>76</v>
+        <v>456</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -10979,10 +10968,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10993,7 +10982,7 @@
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
@@ -11005,18 +10994,18 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11064,13 +11053,13 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>76</v>
@@ -11079,10 +11068,10 @@
         <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -11090,10 +11079,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11116,16 +11105,18 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
       </c>
@@ -11173,7 +11164,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11188,10 +11179,10 @@
         <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -11199,10 +11190,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11213,7 +11204,7 @@
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>76</v>
@@ -11225,16 +11216,16 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>463</v>
+        <v>98</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11284,13 +11275,13 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>76</v>
@@ -11299,10 +11290,10 @@
         <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>76</v>
@@ -11310,10 +11301,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11324,7 +11315,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>76</v>
@@ -11336,18 +11327,16 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>472</v>
-      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>76</v>
       </c>
@@ -11395,13 +11384,13 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>76</v>
@@ -11410,10 +11399,10 @@
         <v>96</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>76</v>
@@ -11421,10 +11410,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11435,7 +11424,7 @@
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
@@ -11444,20 +11433,18 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>98</v>
+        <v>309</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>76</v>
@@ -11506,13 +11493,13 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>76</v>
@@ -11521,10 +11508,10 @@
         <v>96</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>479</v>
+        <v>299</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>76</v>
@@ -11532,10 +11519,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11546,7 +11533,7 @@
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>76</v>
@@ -11558,13 +11545,13 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11615,13 +11602,13 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>76</v>
@@ -11630,230 +11617,12 @@
         <v>96</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>484</v>
+        <v>76</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM90" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Device.xlsx
+++ b/StructureDefinition-profile-Device.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7821593-06:00</t>
+    <t>2026-02-20T11:59:20.7778575-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Device|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Device</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>availabilityStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.availabilityStatus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.availabilityStatus}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>biologicalSourceEvent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.biologicalSourceEvent|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.biologicalSourceEvent}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.category|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.category}
 </t>
   </si>
   <si>
@@ -504,7 +504,7 @@
     <t>mode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.mode|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.mode}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>cycle</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.cycle|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.cycle}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>duration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.duration|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.duration}
 </t>
   </si>
   <si>
@@ -561,7 +561,7 @@
     <t>gateway</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.gateway|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.gateway}
 </t>
   </si>
   <si>
@@ -580,7 +580,7 @@
     <t>endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -689,7 +689,7 @@
     <t>definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.definition|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.definition}
 </t>
   </si>
   <si>
@@ -810,7 +810,7 @@
     <t>udiCarrier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.udiCarrier|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.udiCarrier}
 </t>
   </si>
   <si>
@@ -1131,7 +1131,7 @@
     <t>displayName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.displayName|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.displayName}
 </t>
   </si>
   <si>
@@ -1150,7 +1150,7 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.name|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.name}
 </t>
   </si>
   <si>
@@ -1255,17 +1255,15 @@
     <t>conformsTo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.conformsTo|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {device-conformsTo}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Device.conformsTo from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Identifies the standards, specifications, or formal guidances for the capabilities supported by the device. The device may be certified as conformant to these specifications e.g., communication, performance, process, measurement, or specialization standards.</t>
-  </si>
-  <si>
-    <t>Element `Device.conformsTo` has is mapped to FHIR R4 element `Device.specialization`, but has no comparisons.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Device.conformsTo`: `http://hl7.org/fhir/StructureDefinition/device-conformsTo`.
+Element `Device.conformsTo` has is mapped to FHIR R4 element `Device.specialization`, but has no comparisons.</t>
   </si>
   <si>
     <t>Device.specialization.modifierExtension</t>
@@ -1310,7 +1308,7 @@
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.version|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.version}
 </t>
   </si>
   <si>
@@ -1371,7 +1369,7 @@
     <t>property</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.property|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.property}
 </t>
   </si>
   <si>
@@ -1876,7 +1874,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.6015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -8582,10 +8580,10 @@
         <v>392</v>
       </c>
       <c r="M61" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8644,7 +8642,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>135</v>
@@ -8661,10 +8659,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8774,10 +8772,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8803,10 +8801,10 @@
         <v>309</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8857,7 +8855,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>84</v>
@@ -8883,10 +8881,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8912,10 +8910,10 @@
         <v>205</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8966,7 +8964,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -8992,10 +8990,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9021,10 +9019,10 @@
         <v>244</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9075,7 +9073,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9101,10 +9099,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9210,10 +9208,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9317,13 +9315,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>76</v>
@@ -9345,16 +9343,16 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9430,10 +9428,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9543,10 +9541,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9572,10 +9570,10 @@
         <v>309</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9626,7 +9624,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -9652,10 +9650,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9681,10 +9679,10 @@
         <v>193</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9735,7 +9733,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -9761,10 +9759,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9790,10 +9788,10 @@
         <v>205</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9844,7 +9842,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>84</v>
@@ -9870,10 +9868,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9899,10 +9897,10 @@
         <v>244</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9953,7 +9951,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -9979,10 +9977,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10088,10 +10086,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10195,13 +10193,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C76" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>76</v>
@@ -10223,16 +10221,16 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10308,10 +10306,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10421,10 +10419,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10450,10 +10448,10 @@
         <v>309</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10504,7 +10502,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>84</v>
@@ -10530,10 +10528,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10556,13 +10554,13 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10613,7 +10611,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -10639,10 +10637,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10668,10 +10666,10 @@
         <v>309</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10722,7 +10720,7 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -10748,10 +10746,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10774,17 +10772,17 @@
         <v>76</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>76</v>
@@ -10833,7 +10831,7 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -10848,10 +10846,10 @@
         <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>76</v>
@@ -10859,10 +10857,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10885,13 +10883,13 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10942,7 +10940,7 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -10957,10 +10955,10 @@
         <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -10968,10 +10966,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10994,16 +10992,16 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11053,7 +11051,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11068,10 +11066,10 @@
         <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -11079,10 +11077,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11105,17 +11103,17 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -11164,7 +11162,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11179,10 +11177,10 @@
         <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -11190,10 +11188,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11219,13 +11217,13 @@
         <v>98</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11275,7 +11273,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11290,10 +11288,10 @@
         <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>76</v>
@@ -11301,10 +11299,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11327,13 +11325,13 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11384,7 +11382,7 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -11399,7 +11397,7 @@
         <v>96</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>
@@ -11410,10 +11408,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11439,10 +11437,10 @@
         <v>309</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11493,7 +11491,7 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -11519,10 +11517,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11545,13 +11543,13 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11602,7 +11600,7 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-profile-Device.xlsx
+++ b/StructureDefinition-profile-Device.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7778575-06:00</t>
+    <t>2026-02-21T13:36:54.188914-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Device</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Device|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>availabilityStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.availabilityStatus}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.availabilityStatus|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>biologicalSourceEvent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.biologicalSourceEvent}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.biologicalSourceEvent|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.category}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.category|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -504,7 +504,7 @@
     <t>mode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.mode}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.mode|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>cycle</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.cycle}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.cycle|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>duration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.duration}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.duration|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -561,7 +561,7 @@
     <t>gateway</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.gateway}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.gateway|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -572,26 +572,6 @@
   </si>
   <si>
     <t>Element `Device.gateway` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
-  </si>
-  <si>
-    <t>Device.extension:endpoint</t>
-  </si>
-  <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Device.endpoint from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Endpoint in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Device.endpoint` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Device.endpoint` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.modifierExtension</t>
@@ -689,14 +669,14 @@
     <t>definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.definition}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.definition|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Device.definition from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Device.definition` has is mapped to FHIR R4 element `Device.definition`, but has no comparisons.</t>
+    <t>Element `Device.definition` is mapped to FHIR R4 element `Device.definition` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Device.definition.reference</t>
@@ -804,20 +784,10 @@
     <t>Device.udiCarrier.extension</t>
   </si>
   <si>
-    <t>Device.udiCarrier.extension:udiCarrier</t>
-  </si>
-  <si>
-    <t>udiCarrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.udiCarrier}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Device.udiCarrier from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Device.udiCarrier` has is mapped to FHIR R4 element `Device.udiCarrier`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Device.udiCarrier.modifierExtension</t>
@@ -975,6 +945,43 @@
     <t>NA</t>
   </si>
   <si>
+    <t>Device.udiCarrier.entryType.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier.entryType.extension</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier.entryType.extension:entryType</t>
+  </si>
+  <si>
+    <t>entryType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.udiCarrier.entryType|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Device.udiCarrier.entryType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Device.udiCarrier.entryType` is mapped to FHIR R4 element `Device.udiCarrier.entryType` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>Device.udiCarrier.entryType.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
     <t>Device.status</t>
   </si>
   <si>
@@ -1131,7 +1138,7 @@
     <t>displayName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.displayName}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.displayName|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1141,23 +1148,7 @@
     <t>The name used to display by default when the device is referenced. Based on intent of use by the resource creator, this may reflect one of the names in Device.name, or may be another simple name.</t>
   </si>
   <si>
-    <t>Element `Device.displayName` has is mapped to FHIR R4 element `Device.deviceName`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Device.deviceName.extension:name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.name}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Device.name from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Device.name` has is mapped to FHIR R4 element `Device.deviceName`, but has no comparisons.</t>
+    <t>Element `Device.displayName` is mapped to FHIR R4 element `Device.deviceName` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Device.deviceName.modifierExtension</t>
@@ -1249,21 +1240,23 @@
     <t>Device.specialization.extension</t>
   </si>
   <si>
-    <t>Device.specialization.extension:conformsTo</t>
-  </si>
-  <si>
-    <t>conformsTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {device-conformsTo}
+    <t>Device.specialization.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.conformsTo.version|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Device.conformsTo from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Device.conformsTo`: `http://hl7.org/fhir/StructureDefinition/device-conformsTo`.
-Element `Device.conformsTo` has is mapped to FHIR R4 element `Device.specialization`, but has no comparisons.</t>
+    <t>Cross-version extension for Device.conformsTo.version from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifies the specific form or variant of the standard, specification, or formal guidance. This may be a 'version number', release, document edition, publication year, or other label.</t>
+  </si>
+  <si>
+    <t>Element `Device.conformsTo.version` has a context of Device.specialization based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.specialization.modifierExtension</t>
@@ -1302,20 +1295,23 @@
     <t>Device.version.extension</t>
   </si>
   <si>
-    <t>Device.version.extension:version</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.version}
+    <t>Device.version.extension:installDate</t>
+  </si>
+  <si>
+    <t>installDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.version.installDate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Device.version from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Device.version` has is mapped to FHIR R4 element `Device.version`, but has no comparisons.</t>
+    <t>Cross-version extension for Device.version.installDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date the version was installed on the device.</t>
+  </si>
+  <si>
+    <t>Element `Device.version.installDate` has a context of Device.version based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Device.version.modifierExtension</t>
@@ -1363,23 +1359,24 @@
     <t>Device.property.extension</t>
   </si>
   <si>
-    <t>Device.property.extension:property</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.property}
+    <t>Device.property.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Device.property.value|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Device.property from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Static or essentially fixed characteristics or features of the device (e.g., time or timing attributes, resolution, accuracy, intended use or instructions for use, and physical attributes) that are not otherwise captured in more specific attributes.</t>
-  </si>
-  <si>
-    <t>Element `Device.property` has is mapped to FHIR R4 element `Device.property`, but has no comparisons.</t>
+    <t>Cross-version extension for Device.property.value[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The value of the property specified by the associated property.type code.</t>
+  </si>
+  <si>
+    <t>Element `Device.property.value[x]` is mapped to FHIR R4 element `Device.property.valueQuantity` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Element `Device.property.value[x]` is mapped to FHIR R4 element `Device.property.valueCode` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Device.property.modifierExtension</t>
@@ -1855,7 +1852,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM88"/>
+  <dimension ref="A1:AM89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1864,7 +1861,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.4140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.75390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.58984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.9375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1874,7 +1871,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.6015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3699,13 +3696,11 @@
         <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3718,24 +3713,26 @@
         <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3783,7 +3780,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3798,7 +3795,7 @@
         <v>135</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3809,14 +3806,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3829,26 +3826,24 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O18" t="s" s="2">
         <v>190</v>
       </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3896,7 +3891,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3908,24 +3903,24 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3936,7 +3931,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3948,17 +3943,15 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -4007,13 +4000,13 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -4022,21 +4015,21 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4059,13 +4052,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4116,7 +4109,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4128,10 +4121,10 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4156,7 +4149,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -4168,13 +4161,13 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4213,34 +4206,34 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4251,12 +4244,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4265,7 +4260,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4277,15 +4272,17 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4322,19 +4319,19 @@
         <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4360,14 +4357,12 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4385,19 +4380,19 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4447,22 +4442,22 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4499,7 +4494,7 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>219</v>
@@ -4534,13 +4529,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4558,7 +4553,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4567,7 +4562,7 @@
         <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>96</v>
@@ -4584,10 +4579,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4610,16 +4605,16 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4645,31 +4640,31 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4684,7 +4679,7 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4721,7 +4716,7 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>233</v>
@@ -4795,7 +4790,7 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>237</v>
+        <v>127</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4806,10 +4801,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4820,7 +4815,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4832,7 +4827,7 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>239</v>
@@ -4891,13 +4886,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4906,10 +4901,10 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4931,7 +4926,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4940,20 +4935,18 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -5002,25 +4995,25 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5028,21 +5021,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -5054,15 +5047,17 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5111,22 +5106,22 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -5137,14 +5132,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5157,22 +5152,26 @@
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5208,17 +5207,19 @@
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5233,7 +5234,7 @@
         <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5244,23 +5245,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C31" t="s" s="2">
         <v>252</v>
       </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5269,20 +5268,18 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>254</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N31" t="s" s="2">
         <v>255</v>
       </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5331,72 +5328,68 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5444,40 +5437,40 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5493,19 +5486,21 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5553,7 +5548,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5568,25 +5563,25 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5602,18 +5597,20 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5662,7 +5659,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5677,25 +5674,25 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5711,21 +5708,21 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5773,7 +5770,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5788,25 +5785,25 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5822,21 +5819,21 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5860,13 +5857,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5884,7 +5881,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5899,25 +5896,25 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5933,20 +5930,18 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5995,7 +5990,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6007,24 +6002,24 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6035,7 +6030,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -6047,18 +6042,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6082,46 +6075,44 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -6132,12 +6123,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6152,22 +6145,22 @@
         <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6193,13 +6186,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6217,25 +6210,25 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6243,10 +6236,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6257,7 +6250,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6269,13 +6262,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>309</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6302,13 +6295,13 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6326,25 +6319,25 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6352,14 +6345,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6372,22 +6365,22 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6413,13 +6406,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6437,7 +6430,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6452,21 +6445,21 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6477,7 +6470,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6489,13 +6482,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6522,13 +6515,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6546,13 +6539,13 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
@@ -6561,25 +6554,25 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6598,15 +6591,17 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>326</v>
+        <v>199</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6655,7 +6650,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6670,21 +6665,21 @@
         <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6707,13 +6702,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6764,7 +6759,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6779,21 +6774,21 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>335</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6816,13 +6811,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>205</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6873,7 +6868,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6888,21 +6883,21 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6925,17 +6920,15 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>205</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6984,7 +6977,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6999,21 +6992,21 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7024,7 +7017,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -7036,13 +7029,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7093,13 +7086,13 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
@@ -7108,21 +7101,21 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7145,15 +7138,17 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>206</v>
+        <v>343</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -7202,7 +7197,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7214,13 +7209,13 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>209</v>
+        <v>346</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7228,10 +7223,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7254,13 +7249,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>130</v>
+        <v>348</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>131</v>
+        <v>349</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7299,17 +7294,19 @@
         <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>212</v>
+        <v>347</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7321,7 +7318,7 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
@@ -7335,14 +7332,12 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C50" t="s" s="2">
         <v>350</v>
       </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7363,17 +7358,15 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>351</v>
+        <v>199</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7422,22 +7415,22 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7448,14 +7441,12 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7476,17 +7467,15 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
+        <v>130</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7523,19 +7512,17 @@
         <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7544,7 +7531,7 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>135</v>
@@ -7561,46 +7548,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="D52" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>129</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>259</v>
+        <v>356</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7648,7 +7635,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7657,13 +7644,13 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7674,42 +7661,46 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>362</v>
+        <v>248</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7757,22 +7748,22 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7783,14 +7774,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7809,13 +7800,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7842,13 +7833,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>369</v>
+        <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -7866,7 +7857,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>84</v>
@@ -7881,10 +7872,10 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7892,10 +7883,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7903,7 +7894,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>84</v>
@@ -7918,13 +7909,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7951,13 +7942,13 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
@@ -7975,10 +7966,10 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>84</v>
@@ -7990,10 +7981,10 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8001,10 +7992,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8027,17 +8018,15 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8086,7 +8075,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8101,10 +8090,10 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8112,10 +8101,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8138,15 +8127,17 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>309</v>
+        <v>199</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8171,13 +8162,13 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8195,7 +8186,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8210,10 +8201,10 @@
         <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8221,10 +8212,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8235,7 +8226,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8247,13 +8238,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8280,13 +8271,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8304,13 +8295,13 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
@@ -8330,10 +8321,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8344,7 +8335,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8356,13 +8347,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>206</v>
+        <v>383</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>207</v>
+        <v>384</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8413,22 +8404,22 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>208</v>
+        <v>382</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8439,10 +8430,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8453,7 +8444,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8465,13 +8456,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8510,32 +8501,34 @@
         <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8546,14 +8539,12 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8574,17 +8565,15 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>391</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>392</v>
+        <v>130</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>393</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8621,19 +8610,17 @@
         <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8659,46 +8646,46 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="D62" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>129</v>
+        <v>389</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>258</v>
+        <v>390</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>259</v>
+        <v>391</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8746,7 +8733,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8755,13 +8742,13 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8772,42 +8759,46 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>362</v>
+        <v>248</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>396</v>
+        <v>249</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8855,22 +8846,22 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>395</v>
+        <v>251</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8881,18 +8872,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>84</v>
@@ -8907,13 +8898,13 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8964,10 +8955,10 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>84</v>
@@ -8982,7 +8973,7 @@
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -8990,10 +8981,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9004,7 +8995,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -9016,13 +9007,13 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9073,13 +9064,13 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
@@ -9091,7 +9082,7 @@
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9099,10 +9090,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9113,7 +9104,7 @@
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -9125,13 +9116,13 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>206</v>
+        <v>401</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>207</v>
+        <v>402</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9182,22 +9173,22 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>208</v>
+        <v>400</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9208,10 +9199,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9222,7 +9213,7 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9234,13 +9225,13 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9279,32 +9270,34 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9315,14 +9308,12 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9343,17 +9334,15 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>408</v>
+        <v>129</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>409</v>
+        <v>130</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9390,19 +9379,17 @@
         <v>76</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9411,7 +9398,7 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>135</v>
@@ -9428,46 +9415,46 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="D69" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>407</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>258</v>
+        <v>408</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>259</v>
+        <v>409</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9515,7 +9502,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9524,13 +9511,13 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9541,42 +9528,46 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>362</v>
+        <v>248</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>413</v>
+        <v>249</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9624,22 +9615,22 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>412</v>
+        <v>251</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9650,14 +9641,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9676,13 +9667,13 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9733,7 +9724,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -9751,7 +9742,7 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9759,10 +9750,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9770,7 +9761,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>84</v>
@@ -9785,13 +9776,13 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9842,10 +9833,10 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>84</v>
@@ -9860,7 +9851,7 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -9868,10 +9859,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9879,10 +9870,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9894,13 +9885,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9951,13 +9942,13 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
@@ -9977,10 +9968,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9991,7 +9982,7 @@
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -10003,13 +9994,13 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>206</v>
+        <v>422</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>207</v>
+        <v>423</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10060,22 +10051,22 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>208</v>
+        <v>421</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
@@ -10086,10 +10077,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10100,7 +10091,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -10112,13 +10103,13 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10157,32 +10148,34 @@
         <v>76</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -10193,20 +10186,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10221,17 +10212,15 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>428</v>
+        <v>129</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>429</v>
+        <v>130</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10268,19 +10257,17 @@
         <v>76</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC76" s="2"/>
       <c r="AD76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10289,7 +10276,7 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>135</v>
@@ -10306,46 +10293,46 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="D77" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>129</v>
+        <v>428</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>258</v>
+        <v>429</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>259</v>
+        <v>430</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10393,7 +10380,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10402,13 +10389,13 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -10419,42 +10406,46 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>434</v>
+        <v>249</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
       </c>
@@ -10502,22 +10493,22 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>433</v>
+        <v>251</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
@@ -10528,10 +10519,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10539,10 +10530,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -10554,13 +10545,13 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>437</v>
+        <v>312</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10611,13 +10602,13 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>76</v>
@@ -10637,10 +10628,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10663,13 +10654,13 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>309</v>
+        <v>437</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10720,7 +10711,7 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -10746,10 +10737,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10760,7 +10751,7 @@
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>76</v>
@@ -10772,18 +10763,16 @@
         <v>76</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>444</v>
+        <v>312</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>447</v>
-      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>76</v>
       </c>
@@ -10831,13 +10820,13 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>76</v>
@@ -10846,10 +10835,10 @@
         <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>448</v>
+        <v>76</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>76</v>
@@ -10857,10 +10846,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10883,16 +10872,18 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
       </c>
@@ -10940,7 +10931,7 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -10955,10 +10946,10 @@
         <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
@@ -10966,10 +10957,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10980,7 +10971,7 @@
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
@@ -10992,17 +10983,15 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>76</v>
@@ -11051,13 +11040,13 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>76</v>
@@ -11066,7 +11055,7 @@
         <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>455</v>
@@ -11077,10 +11066,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11091,7 +11080,7 @@
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
@@ -11103,18 +11092,18 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>76</v>
       </c>
@@ -11162,13 +11151,13 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>76</v>
@@ -11177,10 +11166,10 @@
         <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -11188,10 +11177,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11214,18 +11203,18 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>98</v>
+        <v>463</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>76</v>
       </c>
@@ -11273,7 +11262,7 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11288,7 +11277,7 @@
         <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>468</v>
@@ -11299,10 +11288,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11313,7 +11302,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>76</v>
@@ -11325,15 +11314,17 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>475</v>
+        <v>98</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>76</v>
@@ -11382,13 +11373,13 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>76</v>
@@ -11397,10 +11388,10 @@
         <v>96</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>76</v>
+        <v>468</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>76</v>
@@ -11408,10 +11399,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11431,16 +11422,16 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>309</v>
+        <v>475</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11491,7 +11482,7 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -11506,7 +11497,7 @@
         <v>96</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>299</v>
+        <v>478</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>76</v>
@@ -11517,10 +11508,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11531,7 +11522,7 @@
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>76</v>
@@ -11540,16 +11531,16 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11600,13 +11591,13 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>76</v>
@@ -11615,12 +11606,121 @@
         <v>96</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>76</v>
       </c>
     </row>
